--- a/inputs/Agenda Mantainer.xlsx
+++ b/inputs/Agenda Mantainer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -303,7 +303,19 @@
     <t>Rodriguez</t>
   </si>
   <si>
+    <t>P222</t>
+  </si>
+  <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Terminator</t>
+  </si>
+  <si>
+    <t>T-1000</t>
+  </si>
+  <si>
+    <t>O'Connor</t>
   </si>
   <si>
     <t>Scanner CT</t>
@@ -313,6 +325,15 @@
   </si>
   <si>
     <t>https://www.starbien.life/scheduling/images/icons/icon_exam_imaging_mri.png</t>
+  </si>
+  <si>
+    <t>Resonancia Magnetica</t>
+  </si>
+  <si>
+    <t>Mamografía</t>
+  </si>
+  <si>
+    <t>Rayos X</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="10">
         <v>3.0</v>
@@ -12323,6 +12344,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.5"/>
+    <col customWidth="1" min="4" max="4" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15737,67 +15759,67 @@
         <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="I4" s="38">
+        <v>46582.0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -19904,7 +19926,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
@@ -19913,7 +19935,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>63</v>
@@ -19922,22 +19944,76 @@
         <v>73.0</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="42">
         <v>2.0</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1">
+        <v>73.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="42">
         <v>3.0</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1">
+        <v>73.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="42">
         <v>4.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1">
+        <v>73.0</v>
       </c>
     </row>
     <row r="6">
